--- a/Functional group features.xlsx
+++ b/Functional group features.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\360MoveData\Users\zhuyi\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B70A4AA-44B4-41F1-B095-8BD5C94B6284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F505B38-5543-4F23-8733-46CAFD05BC11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4896" yWindow="612" windowWidth="12336" windowHeight="10800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="all" sheetId="1" r:id="rId1"/>
-    <sheet name="selected" sheetId="2" r:id="rId2"/>
+    <sheet name="Oringinal 50 features" sheetId="1" r:id="rId1"/>
+    <sheet name="Selected 15 features" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="74">
   <si>
     <t>Chemical potential</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -90,34 +90,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>H</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CF3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CN</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Me</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Et</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>OCH3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NH2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Average electronegativity</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -266,28 +238,39 @@
     <t>Distance between Pyrimidine center and Minimum (Angstrom)</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>CF3</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>Me</t>
-  </si>
-  <si>
-    <t>Et</t>
-  </si>
-  <si>
-    <t>OCH3</t>
-  </si>
-  <si>
-    <t>NH2</t>
+    <t>-H</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-CF3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-CN</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-Me</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-Et</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-OCH3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>-NH2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Types of functional groups</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -346,7 +329,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -362,6 +345,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -646,152 +632,188 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY16"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AO19" sqref="AO19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="23.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="32.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="39" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="59.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="58.88671875" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="25.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24" style="3" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="23.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="19.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="32.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="33.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="35" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="31.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="31.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="32.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="29.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="30.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="32" style="3" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="23" style="3" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="39" style="3" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="56.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="38.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="31.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="33.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="17.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="17.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="20.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="17.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="17.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="9.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="41.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="59.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="58.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="52" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A1" s="6"/>
+      <c r="A1" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="B1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="L1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="M1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="N1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="O1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="P1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="S1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="T1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="U1" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="V1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="W1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="X1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="Y1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="Z1" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="AA1" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="AB1" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="AC1" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="AD1" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="AE1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AF1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="AG1" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AJ1" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AK1" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AL1" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AM1" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AN1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AO1" s="6" t="s">
         <v>56</v>
-      </c>
-      <c r="AI1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AJ1" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK1" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL1" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM1" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AN1" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="AO1" s="6" t="s">
-        <v>63</v>
       </c>
       <c r="AP1" s="6" t="s">
         <v>11</v>
@@ -800,60 +822,60 @@
         <v>12</v>
       </c>
       <c r="AR1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW1" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX1" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY1" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="AS1" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="AT1" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU1" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AV1" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AW1" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="AX1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AY1" s="6" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
-        <v>72</v>
+      <c r="A2" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="K2" s="6">
         <v>9.7769999999999992</v>
@@ -980,8 +1002,8 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>74</v>
+      <c r="A3" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="B3" s="6">
         <v>-7.9047954999999988</v>
@@ -1135,8 +1157,8 @@
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
-        <v>75</v>
+      <c r="A4" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="B4" s="6">
         <v>-10.73936537</v>
@@ -1290,8 +1312,8 @@
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
-        <v>76</v>
+      <c r="A5" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="B5" s="6">
         <v>-7.3382624799999991</v>
@@ -1445,8 +1467,8 @@
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
-        <v>77</v>
+      <c r="A6" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="B6" s="6">
         <v>-6.6160825399999998</v>
@@ -1600,8 +1622,8 @@
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>78</v>
+      <c r="A7" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="B7" s="6">
         <v>-7.7736384799999989</v>
@@ -1755,8 +1777,8 @@
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>79</v>
+      <c r="A8" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="B8" s="6">
         <v>-8.2541847399999995</v>
@@ -2343,13 +2365,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B09C77E-A480-4A4D-A266-FA009EE22B49}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
@@ -2369,9 +2391,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
+      <c r="A1" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -2417,8 +2441,8 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>16</v>
+      <c r="A2" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="B2" s="4">
         <v>2.1</v>
@@ -2467,8 +2491,8 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>17</v>
+      <c r="A3" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="B3" s="4">
         <v>3.625</v>
@@ -2517,8 +2541,8 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
+      <c r="A4" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="B4" s="4">
         <v>2.75</v>
@@ -2567,8 +2591,8 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
+      <c r="A5" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="B5" s="4">
         <v>2.2000000000000002</v>
@@ -2617,8 +2641,8 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
+      <c r="A6" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="B6" s="4">
         <v>2.21</v>
@@ -2667,8 +2691,8 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>21</v>
+      <c r="A7" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="B7" s="4">
         <v>2.21</v>
@@ -2717,8 +2741,8 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
+      <c r="A8" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="B8" s="4">
         <v>2.4</v>
